--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_025.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_025.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295001AA1.05) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
-  </si>
-  <si>
-    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295021AK2.08) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295025EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Safety/relief valve tailpipe temperature/pressure relationships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
-  </si>
-  <si>
-    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AK2.08) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295005AA1.03) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295033EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Maximum safe operating radiation limit</t>
+    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
+  </si>
+  <si>
+    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
+  </si>
+  <si>
+    <t>(295001AA1.06) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Power range monitoring system</t>
+  </si>
+  <si>
+    <t>(295024EK2.03) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
+  </si>
+  <si>
+    <t>(295025EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure effects on reactor water level</t>
+  </si>
+  <si>
+    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
+  </si>
+  <si>
+    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
+  </si>
+  <si>
+    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295021AA1.07) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(295027EK2.02) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Components internal to the containment</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
+  </si>
+  <si>
+    <t>(295006AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor pressure response</t>
+  </si>
+  <si>
+    <t>(295029EK2.09) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295036EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum safe operating limit</t>
+  </si>
+  <si>
+    <t>(295017AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) CRV system operation</t>
+  </si>
+  <si>
+    <t>(295010AA1.08) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Component cooling water</t>
+  </si>
+  <si>
+    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002K4.01) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Ensures that only one or two safety/relief valves reopen following the initial portion of a reactor isolation event (low-low set logic)</t>
+  </si>
+  <si>
+    <t>(261000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A3.01) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Four rod display </t>
+  </si>
+  <si>
+    <t>(209001A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC failures</t>
+  </si>
+  <si>
+    <t>(212000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(223002K3.19) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment atmosphere sampling</t>
+  </si>
+  <si>
+    <t>(264000A4.01) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Voltage/frequency</t>
+  </si>
+  <si>
+    <t>(262002K2.01) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(209002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291007K1.01) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Effect of excessive differential pressure on demineralizer performance</t>
+  </si>
+  <si>
+    <t>(300000K4.01) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Modes of control</t>
+  </si>
+  <si>
+    <t>(215003K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
+  </si>
+  <si>
+    <t>(217000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Low reactor pressure</t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
+  </si>
+  <si>
+    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
+  </si>
+  <si>
+    <t>(203000K2.03) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(263000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Battery charging/discharging rate</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(239002K4.08) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Opening of the SRV from either an electrical or mechanical signal</t>
+  </si>
+  <si>
+    <t>(261000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Instrument air system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
+  </si>
+  <si>
+    <t>(510001K2.01) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System pumps</t>
+  </si>
+  <si>
+    <t>(201001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.10 / 45.1-6 / 45.12) CRD drive water header pressure</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (291006K1.18) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Reasons for noncondensable gas removal</t>
+  </si>
+  <si>
+    <t>(204000K4.10) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(202002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(215001A3.06) Ability to monitor automatic operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.7 / 45.7) TIP detector insertion into the reactor core</t>
+  </si>
+  <si>
+    <t>(288000A2.02) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(202001K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(290001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Vacuum breaker operation (BWR 4)</t>
+  </si>
+  <si>
+    <t>(216000K3.16) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(292006K1.13) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor shutdown</t>
+  </si>
+  <si>
+    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(293009K1.13) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define MAPLHGR</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295001AA2.09) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295022AA2.05) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
   </si>
   <si>
-    <t>(295020AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Drywell/containment temperature response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295010AA1.11) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell/suppression chamber differential pressure </t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295014AK2.12) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(209002A4.14) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Test return valve</t>
-  </si>
-  <si>
-    <t>(203000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223002A2.10) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of coolant accidents</t>
-  </si>
-  <si>
-    <t>(217000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Automatic flow control</t>
-  </si>
-  <si>
-    <t>(262001K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
-  </si>
-  <si>
-    <t>(300000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(205000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Recirculation system</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(259002K4.16) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dedication of feedwater string(s) to ECCS: FWCI</t>
-  </si>
-  <si>
-    <t>(264000A4.03) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of emergency control between manual and automatic</t>
-  </si>
-  <si>
-    <t>(261000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Drywell and suppression chamber differential pressure (Mark I)</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (291004K1.25) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Safety procedures and precautions associated with positive displacement pumps</t>
-  </si>
-  <si>
-    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(510000K3.15) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system pressure</t>
-  </si>
-  <si>
-    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(215005K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) TIP</t>
-  </si>
-  <si>
-    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
-  </si>
-  <si>
-    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
-  </si>
-  <si>
-    <t>(262002K3.05) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ROD WORTH MINIMIZER SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(209002A4.03) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Injection valve</t>
-  </si>
-  <si>
-    <t>(203000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(234000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Mechanically bound fuel assembly</t>
-  </si>
-  <si>
-    <t>(510001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood detection/prevention</t>
-  </si>
-  <si>
-    <t>(290002K3.09) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main steam system</t>
-  </si>
-  <si>
-    <t>(201005K4.13) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Temperature monitoring</t>
-  </si>
-  <si>
-    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
-  </si>
-  <si>
-    <t>(286000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) System lineups</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(288000A2.05) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Extreme outside weather conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(204000A3.01) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System pressure control for low pressure piping </t>
-  </si>
-  <si>
-    <t>(271000K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(256000K1.28) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 CDS) CONDENSATE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Heater drains and vent system</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292008K1.19) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of a control rod withdrawal on reactor power and void fraction content</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
-  </si>
-  <si>
-    <t>(293006K1.10) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define cavitation</t>
-  </si>
-  <si>
-    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
-  </si>
-  <si>
-    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295022AA2.02) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD hydraulic system status</t>
-  </si>
-  <si>
-    <t>(215003A2.06) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty range switch</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil cooling</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202001A2.23) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+    <t>(215005A2.01) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(212000A2.02) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS bus power supply failure </t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223002A2.07) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Various process instrumentation failures</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(245000A2.09) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine vibration</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295001</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>295005</t>
   </si>
   <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>201005</t>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>245000</t>
   </si>
   <si>
     <t>268000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
         <v>107</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
         <v>105</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
         <v>113</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
         <v>107</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D42" t="s">
         <v>105</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
         <v>113</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
         <v>107</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>105</v>
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D56" t="s">
         <v>107</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D59" t="s">
         <v>105</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="s">
         <v>113</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2398,7 +2398,7 @@
         <v>4.3</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
